--- a/STUDIO/org.openl.rules.project/test-resources/classpath/single2/rules.xlsx
+++ b/STUDIO/org.openl.rules.project/test-resources/classpath/single2/rules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>import</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Spreadsheet SpreadsheetResult calc(Person pers, Address adr)</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>adr</t>
   </si>
 </sst>
 </file>
@@ -411,9 +417,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -461,48 +469,56 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>18</v>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
     </row>
